--- a/DataSource/excel/guild.xlsx
+++ b/DataSource/excel/guild.xlsx
@@ -473,7 +473,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -568,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>2</v>
